--- a/E-commerce-OM-Resources/dataset2/ecommerce_authentic_dataset.xlsx
+++ b/E-commerce-OM-Resources/dataset2/ecommerce_authentic_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/E-commerce-OM-Resources/dataset2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FDC898-6E4A-4A4B-B10B-50040E9DE4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C084F85-DAE4-6347-B4BC-A99432B6F442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="980" windowWidth="28040" windowHeight="16380" xr2:uid="{83266CD3-CEB3-CB4E-A9B8-2925477CD46C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{83266CD3-CEB3-CB4E-A9B8-2925477CD46C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="A64" sqref="A64:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
